--- a/0930/result_zeebeck_1.xlsx
+++ b/0930/result_zeebeck_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a22f75bc03278c13/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_Github\0930\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA305EE-F061-4EE6-847F-A0D021C1BBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4567CCEF-24AD-4F0D-94CA-2F4220082BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{CD03F588-1D1C-4CF9-81F5-274A0678E415}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="12515" windowHeight="14794" xr2:uid="{CD03F588-1D1C-4CF9-81F5-274A0678E415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2104D2AA-26FE-404A-B8F0-A1EC495FB048}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C11" sqref="C11:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A10">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -560,84 +560,84 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>1.213182916301059</v>
+        <v>1.2989341794210769</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1.4266547940771706</v>
+        <v>1.4637978464113934</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A13">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1.9792557543498857</v>
+        <v>1.6717076126724457</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A14">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1.8230165524957842</v>
+        <v>1.7751580956704112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A15">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>1.9521469255842474</v>
+        <v>1.8806584598725344</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A16">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>2.0246451673165486</v>
+        <v>1.8324078205843748</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A17">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>2.0575405389501893</v>
+        <v>1.9398011790927121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -648,84 +648,84 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A19">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>1.039405679693046</v>
+        <v>1.213182916301059</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A20">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.88950463573387495</v>
+        <v>1.4266547940771706</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A21">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.89521754068016168</v>
+        <v>1.9792557543498857</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A22">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.96270845716667885</v>
+        <v>1.8230165524957842</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A23">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23">
-        <v>1.0773628991710671</v>
+        <v>1.9521469255842474</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A24">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1.1258568092492136</v>
+        <v>2.0246451673165486</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A25">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
       <c r="C25">
-        <v>1.0834471920874904</v>
+        <v>2.0575405389501893</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -736,84 +736,84 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A27">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>0.5</v>
       </c>
       <c r="C27">
-        <v>0.9196299378358016</v>
+        <v>1.039405679693046</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.90481249770910832</v>
+        <v>0.88950463573387495</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A29">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>0.94420012570438561</v>
+        <v>0.89521754068016168</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>1.0075860275616972</v>
+        <v>0.96270845716667885</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>1.0152421026273091</v>
+        <v>1.0773628991710671</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>1.0662593047873863</v>
+        <v>1.1258568092492136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A33">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>16</v>
       </c>
       <c r="C33">
-        <v>1.0737138198564204</v>
+        <v>1.0834471920874904</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -824,78 +824,166 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>0.5</v>
       </c>
       <c r="C35">
-        <v>0.94538510074317395</v>
+        <v>0.9196299378358016</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A36">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1.055556233404177</v>
+        <v>0.90481249770910832</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>0.79914105965665061</v>
+        <v>0.94420012570438561</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0.81781470859190009</v>
+        <v>1.0075860275616972</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>0.88587073999836441</v>
+        <v>1.0152421026273091</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>0.81350214209423533</v>
+        <v>1.0662593047873863</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>16</v>
       </c>
       <c r="C41">
+        <v>1.0737138198564204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>0.94538510074317395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1.055556233404177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0.79914105965665061</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0.81781470859190009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>0.88587073999836441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>0.81350214209423533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
         <v>0.78754302255523401</v>
       </c>
     </row>
